--- a/Codingtonexcell.xlsx
+++ b/Codingtonexcell.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="495" windowWidth="10740" windowHeight="5055" tabRatio="422" firstSheet="1" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                       </t>
   </si>
@@ -120,24 +120,6 @@
     <t>Initialize Codindton Object - CONSTRUCTOR</t>
   </si>
   <si>
-    <t>Unit Test -Market Class</t>
-  </si>
-  <si>
-    <t>Market()</t>
-  </si>
-  <si>
-    <t>El objeto market se crea con éxito</t>
-  </si>
-  <si>
-    <t>Unit Test - EventSign Class</t>
-  </si>
-  <si>
-    <t>EventSign()</t>
-  </si>
-  <si>
-    <t>El objeto eventsign se crea con éxito</t>
-  </si>
-  <si>
     <t>Unit Test - Park Class</t>
   </si>
   <si>
@@ -151,12 +133,6 @@
   </si>
   <si>
     <t>CP.Prueba.002</t>
-  </si>
-  <si>
-    <t>CP.Prueba.003</t>
-  </si>
-  <si>
-    <t>CP.Prueba.004</t>
   </si>
   <si>
     <t>CP.Prueba.005</t>
@@ -219,13 +195,28 @@
   <si>
     <t xml:space="preserve">El objeto admin se crea con éxito y se inicializa con los valores del admin pasado como parámetro
 </t>
+  </si>
+  <si>
+    <t>Unit Test -LargeBuilding Class</t>
+  </si>
+  <si>
+    <t>Initialize LargeBuilding Object - CONSTRUCTOR</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TC.001</t>
+  </si>
+  <si>
+    <t>LargeBuilding()</t>
+  </si>
+  <si>
+    <t>El objeto LargeBuilding se crea con éxito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -535,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,6 +584,18 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,9 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,7 +722,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -757,7 +756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="7.140625" style="4" customWidth="1"/>
@@ -948,7 +946,7 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -964,7 +962,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -980,7 +978,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -996,7 +994,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1011,7 +1009,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1026,7 +1024,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1041,7 +1039,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1056,7 +1054,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -1073,121 +1071,121 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75">
       <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="3" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
+    <row r="16" spans="1:16">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+    <row r="17" spans="2:16">
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
+    <row r="18" spans="2:16">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
+    <row r="19" spans="2:16">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+    <row r="20" spans="2:16" ht="51.75" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -1207,14 +1205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="53.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="12" customWidth="1"/>
@@ -1225,12 +1223,12 @@
     <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1260,12 +1258,12 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>14</v>
@@ -1278,12 +1276,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="38.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
@@ -1296,70 +1294,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="38.25">
+      <c r="A14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="22" t="s">
         <v>7</v>
       </c>
@@ -1369,60 +1385,78 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5">
+      <c r="A19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="B21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="38.25">
+      <c r="A22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="22" t="s">
         <v>7</v>
       </c>
@@ -1432,12 +1466,12 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="19" t="s">
         <v>21</v>
       </c>
@@ -1467,25 +1501,25 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="22" t="s">
         <v>7</v>
       </c>
@@ -1495,12 +1529,12 @@
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25.5">
       <c r="A36" s="16" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="19" t="s">
         <v>21</v>
       </c>
@@ -1530,25 +1564,25 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="22" t="s">
         <v>7</v>
       </c>
@@ -1558,167 +1592,68 @@
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="25.5">
+      <c r="A44" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+    <row r="45" spans="1:6" ht="15">
+      <c r="A45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="B46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1736,21 +1671,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CA72A41D082544A95AB07860F23E9D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="340c01d888da5bab1431ab979f168ce4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d540c9db9cf7a444d73bdfc2a9c401e3">
     <xsd:element name="properties">
@@ -1864,10 +1784,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB135687-2433-429D-A89B-59FCCB7A779F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFA90CBD-0872-4799-93F5-7158B0D9CF00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1888,17 +1831,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFA90CBD-0872-4799-93F5-7158B0D9CF00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB135687-2433-429D-A89B-59FCCB7A779F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>